--- a/2_Plotting_Statistics/4_TMP_selection_conc/_Fig5_TMP_conc._by_selection.xlsx
+++ b/2_Plotting_Statistics/4_TMP_selection_conc/_Fig5_TMP_conc._by_selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/436c92d0988cb4a1/python/RESPECTevo-Code_Rawdata/2_Plotting_Statistics/4_TMP_selection_conc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{F8FE8A07-4FC8-40A0-B10E-7BF3E1DBE336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF6C6F38-97DD-4612-ABD4-27769E31D11F}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{F8FE8A07-4FC8-40A0-B10E-7BF3E1DBE336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40BBC9E-28CE-4B0A-9A8C-D4A72EE32D51}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="3180" windowWidth="21600" windowHeight="13560" activeTab="2" xr2:uid="{6C03CEBB-38AE-4C3E-BE90-D431709576CF}"/>
+    <workbookView xWindow="3396" yWindow="3132" windowWidth="21600" windowHeight="13560" xr2:uid="{6C03CEBB-38AE-4C3E-BE90-D431709576CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_maximal_survival" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MSC (ug/mL)</t>
+    <t>MSC_ugpmL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1DBC4D-E62A-44FB-B3EC-14E3B72A0093}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE0475C-549C-471B-A944-4675C505A91B}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2112,7 +2112,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B33"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
